--- a/data/trans_dic/KIDM_C_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_3_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 11,34</t>
+          <t>1,12; 10,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,42; 23,9</t>
+          <t>4,3; 21,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,01; 30,06</t>
+          <t>8,05; 28,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 9,89</t>
+          <t>1,3; 10,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 20,76</t>
+          <t>6,25; 22,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 19,16</t>
+          <t>2,11; 22,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 8,21</t>
+          <t>1,83; 8,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 18,06</t>
+          <t>6,67; 18,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,32; 19,32</t>
+          <t>6,33; 20,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,41; 7,03</t>
+          <t>2,4; 6,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,73; 15,19</t>
+          <t>8,72; 15,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 12,84</t>
+          <t>6,42; 12,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,88</t>
+          <t>0,9; 4,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 8,88</t>
+          <t>3,38; 9,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,56; 22,56</t>
+          <t>13,66; 22,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,29; 12,39</t>
+          <t>6,0; 12,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 9,69</t>
+          <t>2,98; 9,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,83</t>
+          <t>3,38; 6,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,03; 17,65</t>
+          <t>11,98; 17,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 11,65</t>
+          <t>7,24; 11,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,98</t>
+          <t>2,06; 5,67</t>
         </is>
       </c>
     </row>
@@ -1004,37 +1004,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 10,94</t>
+          <t>1,3; 11,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 20,54</t>
+          <t>5,96; 20,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 15,28</t>
+          <t>3,97; 15,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,1</t>
+          <t>0,0; 6,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 13,0</t>
+          <t>1,44; 12,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,51; 17,1</t>
+          <t>4,53; 17,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 18,08</t>
+          <t>5,67; 18,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,22 +1044,22 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 8,76</t>
+          <t>1,97; 9,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,93; 16,49</t>
+          <t>6,84; 16,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 14,54</t>
+          <t>6,09; 15,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,93</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,31</t>
+          <t>2,68; 6,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,08; 14,74</t>
+          <t>9,09; 14,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 12,95</t>
+          <t>7,56; 13,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 4,0</t>
+          <t>0,83; 3,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 8,08</t>
+          <t>3,54; 7,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,22; 19,03</t>
+          <t>12,39; 19,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 11,72</t>
+          <t>6,74; 12,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,87</t>
+          <t>2,03; 6,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,19</t>
+          <t>3,61; 6,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,2; 15,67</t>
+          <t>11,27; 15,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 11,64</t>
+          <t>7,7; 11,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,48</t>
+          <t>1,71; 4,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/KIDM_C_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/KIDM_C_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,37 +656,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>4,05%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11,99%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>4,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>10,46%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>17,07%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,05%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>11,99%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -724,57 +724,57 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 10,68</t>
+          <t>1,33; 11,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,3; 21,96</t>
+          <t>6,25; 21,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,05; 28,62</t>
+          <t>2,08; 18,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0; 9,99</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 10,98</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4,45; 23,26</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9,03; 30,66</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>0; 8,64</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 10,71</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>6,25; 22,04</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 22,04</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 9,99</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 8,01</t>
+          <t>1,42; 8,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,67; 18,19</t>
+          <t>6,9; 18,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 20,16</t>
+          <t>7,21; 20,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>17,76%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8,91%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4,98%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>4,15%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>11,89%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>9,44%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,71%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>17,76%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>8,91%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,47%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 6,74</t>
+          <t>3,53; 8,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 15,95</t>
+          <t>13,68; 22,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,42; 12,58</t>
+          <t>6,03; 12,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,8</t>
+          <t>2,21; 8,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 9,14</t>
+          <t>2,34; 6,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,66; 22,39</t>
+          <t>8,61; 15,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,0; 12,21</t>
+          <t>6,87; 13,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 9,85</t>
+          <t>0,8; 4,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,79</t>
+          <t>3,29; 6,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,98; 17,79</t>
+          <t>12,02; 17,74</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 11,62</t>
+          <t>7,01; 11,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,67</t>
+          <t>2,03; 5,54</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9,57%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>4,01%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>11,9%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>8,54%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,17%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,24%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,68%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
         <is>
           <t>9,57%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>10,66%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>4,65%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>10,68%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>9,57%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,7%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 11,07</t>
+          <t>1,45; 12,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 20,37</t>
+          <t>4,69; 17,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 15,33</t>
+          <t>5,66; 18,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,68</t>
+          <t>0; 3,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 12,48</t>
+          <t>1,3; 10,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 17,17</t>
+          <t>6,27; 20,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,67; 18,26</t>
+          <t>4,32; 15,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>0,0; 6,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 9,41</t>
+          <t>1,96; 9,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 16,15</t>
+          <t>6,4; 15,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 15,01</t>
+          <t>5,98; 14,5</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,43</t>
+          <t>0,0; 3,63</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,36%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15,21%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9,12%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>4,11%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>11,69%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>10,05%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,88%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,36%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>15,21%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>9,12%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,47</t>
+          <t>3,58; 7,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,09; 14,79</t>
+          <t>12,01; 18,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,56; 13,1</t>
+          <t>6,9; 12,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,68</t>
+          <t>1,7; 6,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 7,7</t>
+          <t>2,46; 6,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,39; 19,27</t>
+          <t>9,02; 14,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,74; 12,25</t>
+          <t>7,55; 13,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 6,98</t>
+          <t>0,84; 4,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,3</t>
+          <t>3,57; 6,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,27; 15,82</t>
+          <t>11,31; 15,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,7; 11,63</t>
+          <t>7,83; 11,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,21</t>
+          <t>1,63; 4,17</t>
         </is>
       </c>
     </row>
